--- a/mod3charts.xlsx
+++ b/mod3charts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\GitHub\dsc-3-final-project-online-ds-sp-000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4640BA18-5BDE-487B-94DB-30B2BF85D747}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C244B8AB-27C1-4F3E-8C35-36A0C2F1B477}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21288" yWindow="2568" windowWidth="23400" windowHeight="19140" activeTab="1" xr2:uid="{D513B344-31B1-4D1F-848F-14ECB9F23954}"/>
+    <workbookView xWindow="21288" yWindow="2568" windowWidth="23400" windowHeight="19140" xr2:uid="{D513B344-31B1-4D1F-848F-14ECB9F23954}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -136,8 +136,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -170,6 +171,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Model Performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -230,6 +256,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$3</c:f>
@@ -248,7 +332,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$3</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0.253</c:v>
@@ -351,7 +435,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2220,8 +2304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE2CB49-180D-4BE3-8564-5449E1E16530}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2238,7 +2322,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0.253</v>
       </c>
     </row>
@@ -2246,7 +2330,7 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>0.437</v>
       </c>
     </row>
@@ -2260,7 +2344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95AE5711-35A1-4649-AE01-41734D996BF9}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCellId="1" sqref="D1:D4 A1:A4"/>
     </sheetView>
   </sheetViews>
